--- a/Computacion/Unidad 1 TP1 2da Parte.xlsx
+++ b/Computacion/Unidad 1 TP1 2da Parte.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
   <si>
     <t>A0</t>
   </si>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,11 +183,32 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -495,15 +516,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="4.85546875" customWidth="1"/>
+    <col min="10" max="17" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -556,7 +578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>LEFT(K2,1)</f>
         <v>0</v>
@@ -621,7 +643,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A17" si="0">LEFT(K3,1)</f>
         <v>0</v>
@@ -687,11 +709,11 @@
         <v>0000</v>
       </c>
       <c r="R3">
-        <f>COUNTIF(INTERMEDIOS,K3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R3:R16" si="15">COUNTIF(INTERMEDIOS,K3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -725,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J17" si="15">J3+1</f>
+        <f t="shared" ref="J4:J17" si="16">J3+1</f>
         <v>2</v>
       </c>
       <c r="K4" s="1" t="str">
@@ -757,11 +779,11 @@
         <v>0000</v>
       </c>
       <c r="R4">
-        <f>COUNTIF(INTERMEDIOS,K4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -795,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="K5" s="1" t="str">
@@ -827,11 +849,11 @@
         <v>0000</v>
       </c>
       <c r="R5">
-        <f>COUNTIF(INTERMEDIOS,K5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -865,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="K6" s="1" t="str">
@@ -897,7 +919,7 @@
         <v>0000</v>
       </c>
       <c r="R6">
-        <f>COUNTIF(INTERMEDIOS,K6)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -935,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="K7" s="1" t="str">
@@ -967,7 +989,7 @@
         <v>0001</v>
       </c>
       <c r="R7">
-        <f>COUNTIF(INTERMEDIOS,K7)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -1005,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="K8" s="1" t="str">
@@ -1037,7 +1059,7 @@
         <v>0010</v>
       </c>
       <c r="R8">
-        <f>COUNTIF(INTERMEDIOS,K8)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -1075,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="K9" s="1" t="str">
@@ -1107,11 +1129,11 @@
         <v>0011</v>
       </c>
       <c r="R9">
-        <f>COUNTIF(INTERMEDIOS,K9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1145,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="K10" s="1" t="str">
@@ -1177,7 +1199,7 @@
         <v>0000</v>
       </c>
       <c r="R10">
-        <f>COUNTIF(INTERMEDIOS,K10)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -1215,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="K11" s="1" t="str">
@@ -1247,7 +1269,7 @@
         <v>0010</v>
       </c>
       <c r="R11">
-        <f>COUNTIF(INTERMEDIOS,K11)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="K12" s="1" t="str">
@@ -1317,7 +1339,7 @@
         <v>0100</v>
       </c>
       <c r="R12">
-        <f>COUNTIF(INTERMEDIOS,K12)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -1355,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="K13" s="1" t="str">
@@ -1387,11 +1409,11 @@
         <v>0110</v>
       </c>
       <c r="R13">
-        <f>COUNTIF(INTERMEDIOS,K13)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1425,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="K14" s="1" t="str">
@@ -1457,7 +1479,7 @@
         <v>0000</v>
       </c>
       <c r="R14">
-        <f>COUNTIF(INTERMEDIOS,K14)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -1495,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="K15" s="1" t="str">
@@ -1527,7 +1549,7 @@
         <v>0011</v>
       </c>
       <c r="R15">
-        <f>COUNTIF(INTERMEDIOS,K15)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
@@ -1566,7 +1588,7 @@
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="K16" s="5" t="str">
@@ -1598,11 +1620,11 @@
         <v>0110</v>
       </c>
       <c r="R16">
-        <f>COUNTIF(INTERMEDIOS,K16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1636,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="K17" s="1" t="str">
@@ -1668,7 +1690,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>1</v>
       </c>
@@ -1682,10 +1704,1401 @@
         <v>4</v>
       </c>
     </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>7</v>
+      </c>
+      <c r="S21" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>2</v>
+      </c>
+      <c r="V21" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>0</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="S22" t="str">
+        <f>IF(A22=J22,"","KO!")</f>
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" ref="T22:T37" si="17">IF(B22=K22,"","KO!")</f>
+        <v/>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" ref="U22:U37" si="18">IF(C22=L22,"","KO!")</f>
+        <v/>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" ref="V22:V37" si="19">IF(D22=M22,"","KO!")</f>
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" ref="W22:W37" si="20">IF(E22=N22,"","KO!")</f>
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" ref="X22:X37" si="21">IF(F22=O22,"","KO!")</f>
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" ref="Y22:Y37" si="22">IF(G22=P22,"","KO!")</f>
+        <v/>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" ref="Z22:Z37" si="23">IF(H22=Q22,"","KO!")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>0</v>
+      </c>
+      <c r="B23" s="10">
+        <v>0</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" ref="S23:S37" si="24">IF(A23=J23,"","KO!")</f>
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>0</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>0</v>
+      </c>
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>0</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>0</v>
+      </c>
+      <c r="B29" s="10">
+        <v>1</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>1</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>1</v>
+      </c>
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10">
+        <v>0</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>1</v>
+      </c>
+      <c r="B33" s="10">
+        <v>0</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="10">
+        <v>1</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>1</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="10">
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>1</v>
+      </c>
+      <c r="B36" s="10">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>1</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10">
+        <v>1</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2:H17">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:Q37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"1"</formula>
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Computacion/Unidad 1 TP1 2da Parte.xlsx
+++ b/Computacion/Unidad 1 TP1 2da Parte.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="P06" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="P07" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>A0</t>
   </si>
@@ -67,6 +67,102 @@
   </si>
   <si>
     <t>SALIDA</t>
+  </si>
+  <si>
+    <t>OPERACIÓN</t>
+  </si>
+  <si>
+    <t>(-7)</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>(-3)</t>
+  </si>
+  <si>
+    <t>PAPEL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>(1) 0110</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>SUMA</t>
+  </si>
+  <si>
+    <t>RESTA</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>MEMORIA (C1)</t>
+  </si>
+  <si>
+    <t>UAL (C2)</t>
+  </si>
+  <si>
+    <t>Resultado:</t>
+  </si>
+  <si>
+    <t>Verificación</t>
+  </si>
+  <si>
+    <t>(-7) + (-3)</t>
+  </si>
+  <si>
+    <t>(-10)</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>(-7) - (-3)</t>
+  </si>
+  <si>
+    <t>(-4)</t>
   </si>
 </sst>
 </file>
@@ -95,7 +191,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,12 +201,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -156,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -164,41 +254,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -518,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,28 +616,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -579,35 +666,35 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="12" t="str">
         <f>LEFT(K2,1)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="str">
+      <c r="B2" s="13" t="str">
         <f>MID(K2,2,1)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="12" t="str">
         <f>MID(K2,3,1)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="str">
+      <c r="D2" s="13" t="str">
         <f>RIGHT(K2,1)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="12" t="str">
         <f>LEFT(Q2,1)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="12" t="str">
         <f>MID(Q2,2,1)</f>
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="12" t="str">
         <f>MID(Q2,3,1)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="H2" s="12" t="str">
         <f>RIGHT(Q2,1)</f>
         <v>0</v>
       </c>
@@ -644,35 +731,35 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="12" t="str">
         <f t="shared" ref="A3:A17" si="0">LEFT(K3,1)</f>
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" s="13" t="str">
         <f t="shared" ref="B3:B17" si="1">MID(K3,2,1)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="12" t="str">
         <f t="shared" ref="C3:C17" si="2">MID(K3,3,1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="str">
+      <c r="D3" s="13" t="str">
         <f t="shared" ref="D3:D17" si="3">RIGHT(K3,1)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="12" t="str">
         <f t="shared" ref="E3:E17" si="4">LEFT(Q3,1)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="12" t="str">
         <f t="shared" ref="F3:F17" si="5">MID(Q3,2,1)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="12" t="str">
         <f t="shared" ref="G3:G17" si="6">MID(Q3,3,1)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="H3" s="12" t="str">
         <f t="shared" ref="H3:H17" si="7">RIGHT(Q3,1)</f>
         <v>0</v>
       </c>
@@ -714,35 +801,35 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="12" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="str">
+      <c r="D4" s="13" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="12" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H4" s="1" t="str">
+      <c r="H4" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -784,35 +871,35 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="str">
+      <c r="D5" s="13" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F5" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="12" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="str">
+      <c r="H5" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -854,35 +941,35 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="str">
+      <c r="D6" s="13" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F6" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="12" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="str">
+      <c r="H6" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -924,35 +1011,35 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="str">
+      <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="str">
+      <c r="C7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D7" s="9" t="str">
+      <c r="D7" s="13" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E7" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="str">
+      <c r="F7" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G7" s="8" t="str">
+      <c r="G7" s="12" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H7" s="8" t="str">
+      <c r="H7" s="12" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -994,35 +1081,35 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="str">
+      <c r="C8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="str">
+      <c r="D8" s="13" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E8" s="8" t="str">
+      <c r="E8" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="str">
+      <c r="F8" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G8" s="8" t="str">
+      <c r="G8" s="12" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="H8" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1064,35 +1151,35 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="str">
+      <c r="A9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D9" s="4" t="str">
+      <c r="D9" s="13" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="str">
+      <c r="F9" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G9" s="1" t="str">
+      <c r="G9" s="12" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H9" s="1" t="str">
+      <c r="H9" s="12" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -1134,35 +1221,35 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="str">
+      <c r="A10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D10" s="4" t="str">
+      <c r="D10" s="13" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="str">
+      <c r="F10" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G10" s="1" t="str">
+      <c r="G10" s="12" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1204,35 +1291,35 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
+      <c r="A11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="str">
+      <c r="B11" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C11" s="8" t="str">
+      <c r="C11" s="12" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D11" s="9" t="str">
+      <c r="D11" s="13" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E11" s="8" t="str">
+      <c r="E11" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="F11" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G11" s="8" t="str">
+      <c r="G11" s="12" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H11" s="8" t="str">
+      <c r="H11" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1274,35 +1361,35 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B12" s="9" t="str">
+      <c r="B12" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D12" s="9" t="str">
+      <c r="D12" s="13" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E12" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F12" s="12" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G12" s="12" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H12" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1344,35 +1431,35 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="str">
+      <c r="A13" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="13" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D13" s="4" t="str">
+      <c r="D13" s="13" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F13" s="1" t="str">
+      <c r="F13" s="12" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G13" s="1" t="str">
+      <c r="G13" s="12" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1414,35 +1501,35 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
+      <c r="A14" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="12" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D14" s="4" t="str">
+      <c r="D14" s="13" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="str">
+      <c r="F14" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="str">
+      <c r="G14" s="12" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H14" s="1" t="str">
+      <c r="H14" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1484,35 +1571,35 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="str">
+      <c r="A15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="12" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D15" s="4" t="str">
+      <c r="D15" s="13" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="str">
+      <c r="F15" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G15" s="1" t="str">
+      <c r="G15" s="12" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H15" s="1" t="str">
+      <c r="H15" s="12" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -1554,68 +1641,68 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="str">
+      <c r="A16" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B16" s="6" t="str">
+      <c r="B16" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="str">
+      <c r="C16" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D16" s="6" t="str">
+      <c r="D16" s="13" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="5" t="str">
+      <c r="E16" s="12" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F16" s="5" t="str">
+      <c r="F16" s="12" t="str">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="G16" s="12" t="str">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="H16" s="5" t="str">
+      <c r="H16" s="12" t="str">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="5">
+      <c r="I16" s="4"/>
+      <c r="J16" s="3">
         <f t="shared" si="16"/>
         <v>14</v>
       </c>
-      <c r="K16" s="5" t="str">
+      <c r="K16" s="3" t="str">
         <f t="shared" si="8"/>
         <v>1110</v>
       </c>
-      <c r="L16" s="5" t="str">
+      <c r="L16" s="3" t="str">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="M16" s="5" t="str">
+      <c r="M16" s="3" t="str">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="3">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="O16" s="5">
+      <c r="O16" s="3">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="3">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="Q16" s="5" t="str">
+      <c r="Q16" s="3" t="str">
         <f t="shared" si="14"/>
         <v>0110</v>
       </c>
@@ -1625,35 +1712,35 @@
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="str">
+      <c r="A17" s="12" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="13" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="12" t="str">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="D17" s="4" t="str">
+      <c r="D17" s="13" t="str">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="E17" s="12" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F17" s="1" t="str">
+      <c r="F17" s="12" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="G17" s="12" t="str">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="H17" s="12" t="str">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -1779,28 +1866,28 @@
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>0</v>
-      </c>
-      <c r="B22" s="10">
-        <v>0</v>
-      </c>
-      <c r="C22" s="10">
-        <v>0</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="A22" s="5">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>0</v>
       </c>
       <c r="J22">
@@ -1861,28 +1948,28 @@
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>0</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="A23" s="5">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>0</v>
       </c>
       <c r="J23">
@@ -1943,28 +2030,28 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>0</v>
-      </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="A24" s="5">
+        <v>0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <v>0</v>
       </c>
       <c r="J24">
@@ -2025,28 +2112,28 @@
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>0</v>
-      </c>
-      <c r="B25" s="10">
-        <v>0</v>
-      </c>
-      <c r="C25" s="10">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
+      <c r="A25" s="5">
+        <v>0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
         <v>0</v>
       </c>
       <c r="J25">
@@ -2107,28 +2194,28 @@
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>0</v>
-      </c>
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10">
-        <v>0</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
+      <c r="A26" s="5">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
         <v>0</v>
       </c>
       <c r="J26">
@@ -2189,28 +2276,28 @@
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>0</v>
-      </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
-        <v>0</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
+      <c r="A27" s="5">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>1</v>
       </c>
       <c r="J27">
@@ -2271,28 +2358,28 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>0</v>
-      </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10">
+      <c r="A28" s="5">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
         <v>0</v>
       </c>
       <c r="J28">
@@ -2353,28 +2440,28 @@
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>0</v>
-      </c>
-      <c r="B29" s="10">
-        <v>1</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
+      <c r="A29" s="5">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
         <v>1</v>
       </c>
       <c r="J29">
@@ -2435,28 +2522,28 @@
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>1</v>
-      </c>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
-      <c r="C30" s="10">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="A30" s="5">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <v>0</v>
       </c>
       <c r="J30">
@@ -2517,28 +2604,28 @@
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>1</v>
-      </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="A31" s="5">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
         <v>0</v>
       </c>
       <c r="J31">
@@ -2599,28 +2686,28 @@
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>1</v>
-      </c>
-      <c r="B32" s="10">
-        <v>0</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
+      <c r="A32" s="5">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <v>0</v>
       </c>
       <c r="J32">
@@ -2681,28 +2768,28 @@
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>1</v>
-      </c>
-      <c r="B33" s="10">
-        <v>0</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>1</v>
-      </c>
-      <c r="H33" s="10">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
         <v>0</v>
       </c>
       <c r="J33">
@@ -2763,28 +2850,28 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>1</v>
-      </c>
-      <c r="B34" s="10">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
         <v>0</v>
       </c>
       <c r="J34">
@@ -2845,28 +2932,28 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>1</v>
-      </c>
-      <c r="B35" s="10">
-        <v>1</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10">
+      <c r="A35" s="5">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
         <v>1</v>
       </c>
       <c r="J35">
@@ -2927,28 +3014,28 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>1</v>
-      </c>
-      <c r="B36" s="10">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10">
-        <v>1</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1</v>
+      </c>
+      <c r="H36" s="5">
         <v>0</v>
       </c>
       <c r="J36">
@@ -3009,28 +3096,28 @@
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>1</v>
-      </c>
-      <c r="B37" s="10">
-        <v>1</v>
-      </c>
-      <c r="C37" s="10">
-        <v>1</v>
-      </c>
-      <c r="D37" s="10">
-        <v>1</v>
-      </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10">
-        <v>0</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10">
+      <c r="A37" s="5">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
         <v>1</v>
       </c>
       <c r="J37">
@@ -3092,7 +3179,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:H17">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3108,13 +3195,380 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="str">
+        <f>"-"&amp;RIGHT(DEC2BIN(7,4),4)</f>
+        <v>-0111</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="str">
+        <f>"-"&amp;RIGHT(DEC2BIN(3,4),4)</f>
+        <v>-0011</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="str">
+        <f>"-"&amp;RIGHT(DEC2BIN(7,4),4)</f>
+        <v>-0111</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="6" t="str">
+        <f>"-"&amp;RIGHT(DEC2BIN(3,4),4)</f>
+        <v>-0011</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="7">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="7">
+        <v>7</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
